--- a/results/undetected_eavesdropping_experiments/plots.xlsx
+++ b/results/undetected_eavesdropping_experiments/plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlomazzanti/progetti/JuliaProjects/BB84_Protocol/undetected_eavesdropping_experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlomazzanti/progetti/JuliaProjects/BB84_Protocol/results/undetected_eavesdropping_experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7515C22A-5002-0742-B69B-01F9C249E1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CD1DE-14BD-6E4A-A4C5-4A7CA2E6EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="27520" windowHeight="16900" activeTab="4" xr2:uid="{58F868A0-ECF7-A14F-85C4-EBEF0275CD58}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27520" windowHeight="16900" activeTab="4" xr2:uid="{58F868A0-ECF7-A14F-85C4-EBEF0275CD58}"/>
   </bookViews>
   <sheets>
     <sheet name="probability_undetected_ideal" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">probability_undetected_bitflip!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">probability_undetected_bitflip!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">probability_undetected_bitphase!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">probability_undetected_bitphase!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">probability_undetected_ideal!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">probability_undetected_ideal!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">probability_undetected_phasefli!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">probability_undetected_phasefli!$B$2:$B$11</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">probability_undetected_bitflip!$A$1:$B$11</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">probability_undetected_bitphase!$A$1:$B$11</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">probability_undetected_ideal!$A$1:$B$11</definedName>
@@ -138,6 +146,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Undetected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> probability</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -171,7 +209,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -281,7 +319,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DF9-3848-B041-1564438D8646}"/>
@@ -396,7 +434,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8DF9-3848-B041-1564438D8646}"/>
@@ -511,7 +549,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8DF9-3848-B041-1564438D8646}"/>
@@ -626,7 +664,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8DF9-3848-B041-1564438D8646}"/>
@@ -2288,7 +2326,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
